--- a/Analysis/Step Test Continuity.xlsx
+++ b/Analysis/Step Test Continuity.xlsx
@@ -1,41 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l1124010\Downloads\researchProject-master\researchProject-master\Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="35-40" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Date: </t>
-  </si>
-  <si>
-    <t>Tue Nov 03 11:15:07 2015</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>PV</t>
+    <t>OP</t>
   </si>
   <si>
-    <t>OP</t>
+    <t>PV 03/11</t>
+  </si>
+  <si>
+    <t>PV 04/11</t>
+  </si>
+  <si>
+    <t>Varies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,12 +80,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -99,13 +125,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Data Continuity Analysis</a:t>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparison of a 35 - 40 % step change over two days to illustrate continuity of results</a:t>
             </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -114,15 +146,17 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>U</c:v>
+            <c:v>OP</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -155,479 +189,479 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="156"/>
                 <c:pt idx="0">
-                  <c:v>9.7339999675750732</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.733999967575073</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.733000040054321</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.749000072479248</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.733000040054321</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.732000112533569</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.732000112533569</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.763000011444092</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.746999979019165</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99.746000051498413</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109.74600005149841</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>119.74500012397766</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>129.76100015640259</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139.75999999046326</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>149.75999999046326</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>159.75999999046326</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>169.77500009536743</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>179.78999996185303</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>189.8050000667572</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>199.8050000667572</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>209.82000017166138</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>219.83500003814697</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>229.83500003814697</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>239.85000014305115</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>249.86500000953674</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>259.84899997711182</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>269.84899997711182</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>279.88000011444092</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>289.86400008201599</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>299.89499998092651</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>309.87899994850159</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>319.89400005340576</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>329.89300012588501</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>339.90900015830994</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>349.92400002479553</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>359.93900012969971</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>369.93900012969971</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>379.93799996376038</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>389.93799996376038</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>399.93799996376038</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>409.93700003623962</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>419.93700003623962</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>429.9520001411438</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>439.9520001411438</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>449.95099997520447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>459.9539999961853</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>469.95300006866455</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>479.95300006866455</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>489.95300006866455</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>499.96800017356873</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>509.96700000762939</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>519.96700000762939</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>529.96700000762939</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>539.96600008010864</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>549.98099994659424</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>559.99699997901917</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>569.99600005149841</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>580.01100015640259</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>590.02699995040894</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>600.02600002288818</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>610.04200005531311</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>620.05700016021729</c:v>
+                  <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>630.05599999427795</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>640.05599999427795</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>650.07100009918213</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>660.08599996566772</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>670.08599996566772</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>680.08599996566772</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>690.08500003814697</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>700.10000014305115</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>710.11600017547607</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>720.11500000953674</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>730.11500000953674</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>740.11500000953674</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>750.13000011444092</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>760.12899994850159</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>770.14499998092651</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>780.16000008583069</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>790.17499995231628</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>800.17499995231628</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>810.17400002479553</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>820.17400002479553</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>830.17300009727478</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>840.17300009727478</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>850.17300009727478</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>860.18799996376038</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>870.18799996376038</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>880.18700003623962</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>890.18700003623962</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>900.18600010871887</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>910.18600010871887</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>920.20099997520447</c:v>
+                  <c:v>920</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>930.20099997520447</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>940.20000004768372</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>950.20000004768372</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>960.20000004768372</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>970.19900012016296</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>980.19900012016296</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>990.21399998664856</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1000.2139999866486</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1010.2130000591278</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1020.2290000915527</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1030.2439999580383</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1040.2430000305176</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1050.2590000629425</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1060.2580001354218</c:v>
+                  <c:v>1060</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1070.2580001354218</c:v>
+                  <c:v>1070</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1080.2580001354218</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1090.2569999694824</c:v>
+                  <c:v>1090</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1100.2720000743866</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1110.2560000419617</c:v>
+                  <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1120.2720000743866</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1130.2870001792908</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1140.2860000133514</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1150.3170001506805</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1160.3170001506805</c:v>
+                  <c:v>1160</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1170.3159999847412</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1180.3320000171661</c:v>
+                  <c:v>1180</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1190.3470001220703</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1200.3470001220703</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1210.345999956131</c:v>
+                  <c:v>1210</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1220.345999956131</c:v>
+                  <c:v>1220</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1230.3610000610352</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1240.3610000610352</c:v>
+                  <c:v>1240</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1250.3760001659393</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1260.3910000324249</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1270.4060001373291</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1280.4060001373291</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1290.4049999713898</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1300.4049999713898</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1310.4200000762939</c:v>
+                  <c:v>1310</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1320.4360001087189</c:v>
+                  <c:v>1320</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1330.4509999752045</c:v>
+                  <c:v>1330</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1340.4500000476837</c:v>
+                  <c:v>1340</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1350.4809999465942</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1360.4809999465942</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1370.4960000514984</c:v>
+                  <c:v>1370</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1380.5110001564026</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1390.5110001564026</c:v>
+                  <c:v>1390</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1400.5260000228882</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1410.5260000228882</c:v>
+                  <c:v>1410</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1420.5410001277924</c:v>
+                  <c:v>1420</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1430.5410001277924</c:v>
+                  <c:v>1430</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1440.539999961853</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1450.539999961853</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1460.5550000667572</c:v>
+                  <c:v>1460</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1470.5700001716614</c:v>
+                  <c:v>1470</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1480.5700001716614</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1490.569000005722</c:v>
+                  <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1500.569000005722</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1510.569000005722</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1520.5680000782013</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1530.5680000782013</c:v>
+                  <c:v>1530</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1540.5829999446869</c:v>
+                  <c:v>1540</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1550.5829999446869</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1560.5840001106262</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'35-40'!$C$4:$C$159</c:f>
+              <c:f>'35-40'!$D$4:$D$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="156"/>
@@ -1141,472 +1175,472 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="156"/>
                 <c:pt idx="0">
-                  <c:v>9.7339999675750732</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.733999967575073</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.733000040054321</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.749000072479248</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.733000040054321</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.732000112533569</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.732000112533569</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.763000011444092</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.746999979019165</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99.746000051498413</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109.74600005149841</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>119.74500012397766</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>129.76100015640259</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139.75999999046326</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>149.75999999046326</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>159.75999999046326</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>169.77500009536743</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>179.78999996185303</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>189.8050000667572</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>199.8050000667572</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>209.82000017166138</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>219.83500003814697</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>229.83500003814697</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>239.85000014305115</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>249.86500000953674</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>259.84899997711182</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>269.84899997711182</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>279.88000011444092</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>289.86400008201599</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>299.89499998092651</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>309.87899994850159</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>319.89400005340576</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>329.89300012588501</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>339.90900015830994</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>349.92400002479553</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>359.93900012969971</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>369.93900012969971</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>379.93799996376038</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>389.93799996376038</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>399.93799996376038</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>409.93700003623962</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>419.93700003623962</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>429.9520001411438</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>439.9520001411438</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>449.95099997520447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>459.9539999961853</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>469.95300006866455</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>479.95300006866455</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>489.95300006866455</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>499.96800017356873</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>509.96700000762939</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>519.96700000762939</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>529.96700000762939</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>539.96600008010864</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>549.98099994659424</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>559.99699997901917</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>569.99600005149841</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>580.01100015640259</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>590.02699995040894</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>600.02600002288818</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>610.04200005531311</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>620.05700016021729</c:v>
+                  <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>630.05599999427795</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>640.05599999427795</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>650.07100009918213</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>660.08599996566772</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>670.08599996566772</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>680.08599996566772</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>690.08500003814697</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>700.10000014305115</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>710.11600017547607</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>720.11500000953674</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>730.11500000953674</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>740.11500000953674</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>750.13000011444092</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>760.12899994850159</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>770.14499998092651</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>780.16000008583069</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>790.17499995231628</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>800.17499995231628</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>810.17400002479553</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>820.17400002479553</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>830.17300009727478</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>840.17300009727478</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>850.17300009727478</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>860.18799996376038</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>870.18799996376038</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>880.18700003623962</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>890.18700003623962</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>900.18600010871887</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>910.18600010871887</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>920.20099997520447</c:v>
+                  <c:v>920</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>930.20099997520447</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>940.20000004768372</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>950.20000004768372</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>960.20000004768372</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>970.19900012016296</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>980.19900012016296</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>990.21399998664856</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1000.2139999866486</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1010.2130000591278</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1020.2290000915527</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1030.2439999580383</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1040.2430000305176</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1050.2590000629425</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1060.2580001354218</c:v>
+                  <c:v>1060</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1070.2580001354218</c:v>
+                  <c:v>1070</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1080.2580001354218</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1090.2569999694824</c:v>
+                  <c:v>1090</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1100.2720000743866</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1110.2560000419617</c:v>
+                  <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1120.2720000743866</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1130.2870001792908</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1140.2860000133514</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1150.3170001506805</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1160.3170001506805</c:v>
+                  <c:v>1160</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1170.3159999847412</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1180.3320000171661</c:v>
+                  <c:v>1180</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1190.3470001220703</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1200.3470001220703</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1210.345999956131</c:v>
+                  <c:v>1210</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1220.345999956131</c:v>
+                  <c:v>1220</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1230.3610000610352</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1240.3610000610352</c:v>
+                  <c:v>1240</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1250.3760001659393</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1260.3910000324249</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1270.4060001373291</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1280.4060001373291</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1290.4049999713898</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1300.4049999713898</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1310.4200000762939</c:v>
+                  <c:v>1310</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1320.4360001087189</c:v>
+                  <c:v>1320</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1330.4509999752045</c:v>
+                  <c:v>1330</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1340.4500000476837</c:v>
+                  <c:v>1340</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1350.4809999465942</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1360.4809999465942</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1370.4960000514984</c:v>
+                  <c:v>1370</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1380.5110001564026</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1390.5110001564026</c:v>
+                  <c:v>1390</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1400.5260000228882</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1410.5260000228882</c:v>
+                  <c:v>1410</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1420.5410001277924</c:v>
+                  <c:v>1420</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1430.5410001277924</c:v>
+                  <c:v>1430</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1440.539999961853</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1450.539999961853</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1460.5550000667572</c:v>
+                  <c:v>1460</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1470.5700001716614</c:v>
+                  <c:v>1470</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1480.5700001716614</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1490.569000005722</c:v>
+                  <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1500.569000005722</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1510.569000005722</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1520.5680000782013</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1530.5680000782013</c:v>
+                  <c:v>1530</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1540.5829999446869</c:v>
+                  <c:v>1540</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1550.5829999446869</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1560.5840001106262</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,389 +2137,389 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="126"/>
                 <c:pt idx="0">
-                  <c:v>9.7339999675750732</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.733999967575073</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.733000040054321</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.749000072479248</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.733000040054321</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.732000112533569</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.732000112533569</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.763000011444092</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.746999979019165</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99.746000051498413</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109.74600005149841</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>119.74500012397766</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>129.76100015640259</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139.75999999046326</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>149.75999999046326</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>159.75999999046326</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>169.77500009536743</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>179.78999996185303</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>189.8050000667572</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>199.8050000667572</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>209.82000017166138</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>219.83500003814697</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>229.83500003814697</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>239.85000014305115</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>249.86500000953674</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>259.84899997711182</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>269.84899997711182</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>279.88000011444092</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>289.86400008201599</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>299.89499998092651</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>309.87899994850159</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>319.89400005340576</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>329.89300012588501</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>339.90900015830994</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>349.92400002479553</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>359.93900012969971</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>369.93900012969971</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>379.93799996376038</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>389.93799996376038</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>399.93799996376038</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>409.93700003623962</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>419.93700003623962</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>429.9520001411438</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>439.9520001411438</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>449.95099997520447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>459.9539999961853</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>469.95300006866455</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>479.95300006866455</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>489.95300006866455</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>499.96800017356873</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>509.96700000762939</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>519.96700000762939</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>529.96700000762939</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>539.96600008010864</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>549.98099994659424</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>559.99699997901917</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>569.99600005149841</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>580.01100015640259</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>590.02699995040894</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>600.02600002288818</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>610.04200005531311</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>620.05700016021729</c:v>
+                  <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>630.05599999427795</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>640.05599999427795</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>650.07100009918213</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>660.08599996566772</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>670.08599996566772</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>680.08599996566772</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>690.08500003814697</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>700.10000014305115</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>710.11600017547607</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>720.11500000953674</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>730.11500000953674</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>740.11500000953674</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>750.13000011444092</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>760.12899994850159</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>770.14499998092651</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>780.16000008583069</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>790.17499995231628</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>800.17499995231628</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>810.17400002479553</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>820.17400002479553</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>830.17300009727478</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>840.17300009727478</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>850.17300009727478</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>860.18799996376038</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>870.18799996376038</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>880.18700003623962</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>890.18700003623962</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>900.18600010871887</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>910.18600010871887</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>920.20099997520447</c:v>
+                  <c:v>920</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>930.20099997520447</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>940.20000004768372</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>950.20000004768372</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>960.20000004768372</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>970.19900012016296</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>980.19900012016296</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>990.21399998664856</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1000.2139999866486</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1010.2130000591278</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1020.2290000915527</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1030.2439999580383</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1040.2430000305176</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1050.2590000629425</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1060.2580001354218</c:v>
+                  <c:v>1060</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1070.2580001354218</c:v>
+                  <c:v>1070</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1080.2580001354218</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1090.2569999694824</c:v>
+                  <c:v>1090</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1100.2720000743866</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1110.2560000419617</c:v>
+                  <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1120.2720000743866</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1130.2870001792908</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1140.2860000133514</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1150.3170001506805</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1160.3170001506805</c:v>
+                  <c:v>1160</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1170.3159999847412</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1180.3320000171661</c:v>
+                  <c:v>1180</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1190.3470001220703</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1200.3470001220703</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1210.345999956131</c:v>
+                  <c:v>1210</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1220.345999956131</c:v>
+                  <c:v>1220</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1230.3610000610352</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1240.3610000610352</c:v>
+                  <c:v>1240</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1250.3760001659393</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1260.3910000324249</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'35-40'!$D$4:$D$129</c:f>
+              <c:f>'35-40'!$C$4:$C$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="126"/>
@@ -2872,15 +2906,24 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="45195648"/>
-        <c:axId val="45197568"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="570348816"/>
+        <c:axId val="570553800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45195648"/>
+        <c:axId val="570348816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1600"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2898,6 +2941,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2932,15 +2976,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45197568"/>
+        <c:crossAx val="570553800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45197568"/>
+        <c:axId val="570553800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2958,6 +3003,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2992,7 +3038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45195648"/>
+        <c:crossAx val="570348816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3004,8 +3050,14 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3035,7 +3087,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3045,15 +3097,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:colOff>609597</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>611604</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>5013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3118,7 +3170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3150,9 +3202,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3184,6 +3237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3359,26 +3413,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3386,2098 +3440,2256 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9.7339999675750732</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>90</v>
       </c>
       <c r="C4">
+        <v>104</v>
+      </c>
+      <c r="D4">
         <v>350</v>
       </c>
-      <c r="D4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>19.733999967575073</v>
+        <f>A4+10</f>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>90</v>
       </c>
       <c r="C5">
+        <v>89</v>
+      </c>
+      <c r="D5">
         <v>350</v>
       </c>
-      <c r="D5">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>29.733000040054321</v>
+        <f t="shared" ref="A6:A69" si="0">A5+10</f>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>91</v>
       </c>
       <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6">
         <v>350</v>
       </c>
-      <c r="D6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>39.749000072479248</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>87</v>
       </c>
       <c r="C7">
+        <v>92</v>
+      </c>
+      <c r="D7">
         <v>350</v>
       </c>
-      <c r="D7">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>49.733000040054321</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>95</v>
       </c>
       <c r="C8">
+        <v>89</v>
+      </c>
+      <c r="D8">
         <v>350</v>
       </c>
-      <c r="D8">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>59.732000112533569</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>93</v>
       </c>
       <c r="C9">
+        <v>86</v>
+      </c>
+      <c r="D9">
         <v>350</v>
       </c>
-      <c r="D9">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>69.732000112533569</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>100</v>
       </c>
       <c r="C10">
+        <v>92</v>
+      </c>
+      <c r="D10">
         <v>350</v>
       </c>
-      <c r="D10">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>79.763000011444092</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>87</v>
       </c>
       <c r="C11">
+        <v>96</v>
+      </c>
+      <c r="D11">
         <v>350</v>
       </c>
-      <c r="D11">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>89.746999979019165</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>93</v>
       </c>
       <c r="C12">
+        <v>97</v>
+      </c>
+      <c r="D12">
         <v>350</v>
       </c>
-      <c r="D12">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>99.746000051498413</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>86</v>
       </c>
       <c r="C13">
+        <v>94</v>
+      </c>
+      <c r="D13">
         <v>350</v>
       </c>
-      <c r="D13">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>109.74600005149841</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="B14">
         <v>87</v>
       </c>
       <c r="C14">
+        <v>96</v>
+      </c>
+      <c r="D14">
         <v>350</v>
       </c>
-      <c r="D14">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>119.74500012397766</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="B15">
         <v>94</v>
       </c>
       <c r="C15">
+        <v>92</v>
+      </c>
+      <c r="D15">
         <v>350</v>
       </c>
-      <c r="D15">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>129.76100015640259</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
       <c r="B16">
         <v>91</v>
       </c>
       <c r="C16">
+        <v>88</v>
+      </c>
+      <c r="D16">
         <v>350</v>
       </c>
-      <c r="D16">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>139.75999999046326</v>
+        <f t="shared" si="0"/>
+        <v>140</v>
       </c>
       <c r="B17">
         <v>91</v>
       </c>
       <c r="C17">
+        <v>85</v>
+      </c>
+      <c r="D17">
         <v>350</v>
       </c>
-      <c r="D17">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>149.75999999046326</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="B18">
         <v>97</v>
       </c>
       <c r="C18">
+        <v>87</v>
+      </c>
+      <c r="D18">
         <v>350</v>
       </c>
-      <c r="D18">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>159.75999999046326</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="B19">
         <v>92</v>
       </c>
       <c r="C19">
-        <v>400</v>
+        <v>93</v>
       </c>
       <c r="D19">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>169.77500009536743</v>
+        <f t="shared" si="0"/>
+        <v>170</v>
       </c>
       <c r="B20">
         <v>104</v>
       </c>
       <c r="C20">
-        <v>400</v>
+        <v>104</v>
       </c>
       <c r="D20">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>179.78999996185303</v>
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
       <c r="B21">
         <v>109</v>
       </c>
       <c r="C21">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="D21">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>189.8050000667572</v>
+        <f t="shared" si="0"/>
+        <v>190</v>
       </c>
       <c r="B22">
         <v>115</v>
       </c>
       <c r="C22">
-        <v>400</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>199.8050000667572</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="B23">
         <v>123</v>
       </c>
       <c r="C23">
-        <v>400</v>
+        <v>122</v>
       </c>
       <c r="D23">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>209.82000017166138</v>
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
       <c r="B24">
         <v>126</v>
       </c>
       <c r="C24">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="D24">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>219.83500003814697</v>
+        <f t="shared" si="0"/>
+        <v>220</v>
       </c>
       <c r="B25">
         <v>134</v>
       </c>
       <c r="C25">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="D25">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>229.83500003814697</v>
+        <f t="shared" si="0"/>
+        <v>230</v>
       </c>
       <c r="B26">
         <v>131</v>
       </c>
       <c r="C26">
-        <v>400</v>
+        <v>138</v>
       </c>
       <c r="D26">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>239.85000014305115</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="B27">
         <v>146</v>
       </c>
       <c r="C27">
-        <v>400</v>
+        <v>144</v>
       </c>
       <c r="D27">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>249.86500000953674</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="B28">
         <v>149</v>
       </c>
       <c r="C28">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="D28">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>259.84899997711182</v>
+        <f t="shared" si="0"/>
+        <v>260</v>
       </c>
       <c r="B29">
         <v>154</v>
       </c>
       <c r="C29">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="D29">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>269.84899997711182</v>
+        <f t="shared" si="0"/>
+        <v>270</v>
       </c>
       <c r="B30">
         <v>163</v>
       </c>
       <c r="C30">
-        <v>400</v>
+        <v>165</v>
       </c>
       <c r="D30">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>279.88000011444092</v>
+        <f t="shared" si="0"/>
+        <v>280</v>
       </c>
       <c r="B31">
         <v>170</v>
       </c>
       <c r="C31">
-        <v>400</v>
+        <v>173</v>
       </c>
       <c r="D31">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>289.86400008201599</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="B32">
         <v>178</v>
       </c>
       <c r="C32">
-        <v>400</v>
+        <v>177</v>
       </c>
       <c r="D32">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>299.89499998092651</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="B33">
         <v>180</v>
       </c>
       <c r="C33">
-        <v>400</v>
+        <v>179</v>
       </c>
       <c r="D33">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>309.87899994850159</v>
+        <f t="shared" si="0"/>
+        <v>310</v>
       </c>
       <c r="B34">
         <v>180</v>
       </c>
       <c r="C34">
-        <v>400</v>
+        <v>183</v>
       </c>
       <c r="D34">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>319.89400005340576</v>
+        <f t="shared" si="0"/>
+        <v>320</v>
       </c>
       <c r="B35">
         <v>193</v>
       </c>
       <c r="C35">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="D35">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>329.89300012588501</v>
+        <f t="shared" si="0"/>
+        <v>330</v>
       </c>
       <c r="B36">
         <v>194</v>
       </c>
       <c r="C36">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>339.90900015830994</v>
+        <f t="shared" si="0"/>
+        <v>340</v>
       </c>
       <c r="B37">
         <v>203</v>
       </c>
       <c r="C37">
-        <v>400</v>
+        <v>208</v>
       </c>
       <c r="D37">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>349.92400002479553</v>
+        <f t="shared" si="0"/>
+        <v>350</v>
       </c>
       <c r="B38">
         <v>209</v>
       </c>
       <c r="C38">
-        <v>400</v>
+        <v>207</v>
       </c>
       <c r="D38">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>359.93900012969971</v>
+        <f t="shared" si="0"/>
+        <v>360</v>
       </c>
       <c r="B39">
         <v>212</v>
       </c>
       <c r="C39">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="D39">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>369.93900012969971</v>
+        <f t="shared" si="0"/>
+        <v>370</v>
       </c>
       <c r="B40">
         <v>210</v>
       </c>
       <c r="C40">
-        <v>400</v>
+        <v>223</v>
       </c>
       <c r="D40">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>379.93799996376038</v>
+        <f t="shared" si="0"/>
+        <v>380</v>
       </c>
       <c r="B41">
         <v>218</v>
       </c>
       <c r="C41">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="D41">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>389.93799996376038</v>
+        <f t="shared" si="0"/>
+        <v>390</v>
       </c>
       <c r="B42">
         <v>230</v>
       </c>
       <c r="C42">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="D42">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>399.93799996376038</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
       <c r="B43">
         <v>239</v>
       </c>
       <c r="C43">
-        <v>400</v>
+        <v>237</v>
       </c>
       <c r="D43">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>409.93700003623962</v>
+        <f t="shared" si="0"/>
+        <v>410</v>
       </c>
       <c r="B44">
         <v>240</v>
       </c>
       <c r="C44">
-        <v>400</v>
+        <v>238</v>
       </c>
       <c r="D44">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>419.93700003623962</v>
+        <f t="shared" si="0"/>
+        <v>420</v>
       </c>
       <c r="B45">
         <v>241</v>
       </c>
       <c r="C45">
-        <v>400</v>
+        <v>249</v>
       </c>
       <c r="D45">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>429.9520001411438</v>
+        <f t="shared" si="0"/>
+        <v>430</v>
       </c>
       <c r="B46">
         <v>245</v>
       </c>
       <c r="C46">
-        <v>400</v>
+        <v>252</v>
       </c>
       <c r="D46">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>439.9520001411438</v>
+        <f t="shared" si="0"/>
+        <v>440</v>
       </c>
       <c r="B47">
         <v>247</v>
       </c>
       <c r="C47">
-        <v>400</v>
+        <v>261</v>
       </c>
       <c r="D47">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>449.95099997520447</v>
+        <f t="shared" si="0"/>
+        <v>450</v>
       </c>
       <c r="B48">
         <v>251</v>
       </c>
       <c r="C48">
-        <v>400</v>
+        <v>266</v>
       </c>
       <c r="D48">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>459.9539999961853</v>
+        <f t="shared" si="0"/>
+        <v>460</v>
       </c>
       <c r="B49">
         <v>263</v>
       </c>
       <c r="C49">
-        <v>400</v>
+        <v>263</v>
       </c>
       <c r="D49">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>469.95300006866455</v>
+        <f t="shared" si="0"/>
+        <v>470</v>
       </c>
       <c r="B50">
         <v>259</v>
       </c>
       <c r="C50">
-        <v>400</v>
+        <v>268</v>
       </c>
       <c r="D50">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>479.95300006866455</v>
+        <f t="shared" si="0"/>
+        <v>480</v>
       </c>
       <c r="B51">
         <v>271</v>
       </c>
       <c r="C51">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="D51">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>489.95300006866455</v>
+        <f t="shared" si="0"/>
+        <v>490</v>
       </c>
       <c r="B52">
         <v>273</v>
       </c>
       <c r="C52">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="D52">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>499.96800017356873</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="B53">
         <v>274</v>
       </c>
       <c r="C53">
-        <v>400</v>
+        <v>284</v>
       </c>
       <c r="D53">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>509.96700000762939</v>
+        <f t="shared" si="0"/>
+        <v>510</v>
       </c>
       <c r="B54">
         <v>278</v>
       </c>
       <c r="C54">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="D54">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>519.96700000762939</v>
+        <f t="shared" si="0"/>
+        <v>520</v>
       </c>
       <c r="B55">
         <v>284</v>
       </c>
       <c r="C55">
-        <v>400</v>
+        <v>298</v>
       </c>
       <c r="D55">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>529.96700000762939</v>
+        <f t="shared" si="0"/>
+        <v>530</v>
       </c>
       <c r="B56">
         <v>281</v>
       </c>
       <c r="C56">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D56">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>539.96600008010864</v>
+        <f t="shared" si="0"/>
+        <v>540</v>
       </c>
       <c r="B57">
         <v>294</v>
       </c>
       <c r="C57">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="D57">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>549.98099994659424</v>
+        <f t="shared" si="0"/>
+        <v>550</v>
       </c>
       <c r="B58">
         <v>298</v>
       </c>
       <c r="C58">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="D58">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>559.99699997901917</v>
+        <f t="shared" si="0"/>
+        <v>560</v>
       </c>
       <c r="B59">
         <v>302</v>
       </c>
       <c r="C59">
-        <v>400</v>
+        <v>307</v>
       </c>
       <c r="D59">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>569.99600005149841</v>
+        <f t="shared" si="0"/>
+        <v>570</v>
       </c>
       <c r="B60">
         <v>303</v>
       </c>
       <c r="C60">
-        <v>400</v>
+        <v>303</v>
       </c>
       <c r="D60">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>580.01100015640259</v>
+        <f t="shared" si="0"/>
+        <v>580</v>
       </c>
       <c r="B61">
         <v>305</v>
       </c>
       <c r="C61">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="D61">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>590.02699995040894</v>
+        <f t="shared" si="0"/>
+        <v>590</v>
       </c>
       <c r="B62">
         <v>308</v>
       </c>
       <c r="C62">
-        <v>400</v>
+        <v>317</v>
       </c>
       <c r="D62">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>600.02600002288818</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
       <c r="B63">
         <v>309</v>
       </c>
       <c r="C63">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="D63">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>610.04200005531311</v>
+        <f t="shared" si="0"/>
+        <v>610</v>
       </c>
       <c r="B64">
         <v>320</v>
       </c>
       <c r="C64">
-        <v>400</v>
+        <v>328</v>
       </c>
       <c r="D64">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>620.05700016021729</v>
+        <f t="shared" si="0"/>
+        <v>620</v>
       </c>
       <c r="B65">
         <v>321</v>
       </c>
       <c r="C65">
-        <v>400</v>
+        <v>328</v>
       </c>
       <c r="D65">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>630.05599999427795</v>
+        <f t="shared" si="0"/>
+        <v>630</v>
       </c>
       <c r="B66">
         <v>322</v>
       </c>
       <c r="C66">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="D66">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>640.05599999427795</v>
+        <f t="shared" si="0"/>
+        <v>640</v>
       </c>
       <c r="B67">
         <v>326</v>
       </c>
       <c r="C67">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="D67">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>650.07100009918213</v>
+        <f t="shared" si="0"/>
+        <v>650</v>
       </c>
       <c r="B68">
         <v>327</v>
       </c>
       <c r="C68">
-        <v>400</v>
+        <v>332</v>
       </c>
       <c r="D68">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>660.08599996566772</v>
+        <f t="shared" si="0"/>
+        <v>660</v>
       </c>
       <c r="B69">
         <v>333</v>
       </c>
       <c r="C69">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="D69">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>670.08599996566772</v>
+        <f t="shared" ref="A70:A133" si="1">A69+10</f>
+        <v>670</v>
       </c>
       <c r="B70">
         <v>336</v>
       </c>
       <c r="C70">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="D70">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>680.08599996566772</v>
+        <f t="shared" si="1"/>
+        <v>680</v>
       </c>
       <c r="B71">
         <v>337</v>
       </c>
       <c r="C71">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="D71">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>690.08500003814697</v>
+        <f t="shared" si="1"/>
+        <v>690</v>
       </c>
       <c r="B72">
         <v>343</v>
       </c>
       <c r="C72">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="D72">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>700.10000014305115</v>
+        <f t="shared" si="1"/>
+        <v>700</v>
       </c>
       <c r="B73">
         <v>350</v>
       </c>
       <c r="C73">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="D73">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>710.11600017547607</v>
+        <f t="shared" si="1"/>
+        <v>710</v>
       </c>
       <c r="B74">
         <v>352</v>
       </c>
       <c r="C74">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D74">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>720.11500000953674</v>
+        <f t="shared" si="1"/>
+        <v>720</v>
       </c>
       <c r="B75">
         <v>353</v>
       </c>
       <c r="C75">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="D75">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>730.11500000953674</v>
+        <f t="shared" si="1"/>
+        <v>730</v>
       </c>
       <c r="B76">
         <v>358</v>
       </c>
       <c r="C76">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="D76">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>740.11500000953674</v>
+        <f t="shared" si="1"/>
+        <v>740</v>
       </c>
       <c r="B77">
         <v>358</v>
       </c>
       <c r="C77">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="D77">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>750.13000011444092</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
       <c r="B78">
         <v>363</v>
       </c>
       <c r="C78">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="D78">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>760.12899994850159</v>
+        <f t="shared" si="1"/>
+        <v>760</v>
       </c>
       <c r="B79">
         <v>366</v>
       </c>
       <c r="C79">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="D79">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>770.14499998092651</v>
+        <f t="shared" si="1"/>
+        <v>770</v>
       </c>
       <c r="B80">
         <v>365</v>
       </c>
       <c r="C80">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="D80">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>780.16000008583069</v>
+        <f t="shared" si="1"/>
+        <v>780</v>
       </c>
       <c r="B81">
         <v>367</v>
       </c>
       <c r="C81">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="D81">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>790.17499995231628</v>
+        <f t="shared" si="1"/>
+        <v>790</v>
       </c>
       <c r="B82">
         <v>367</v>
       </c>
       <c r="C82">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="D82">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>800.17499995231628</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="B83">
         <v>372</v>
       </c>
       <c r="C83">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="D83">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>810.17400002479553</v>
+        <f t="shared" si="1"/>
+        <v>810</v>
       </c>
       <c r="B84">
         <v>376</v>
       </c>
       <c r="C84">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="D84">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>820.17400002479553</v>
+        <f t="shared" si="1"/>
+        <v>820</v>
       </c>
       <c r="B85">
         <v>374</v>
       </c>
       <c r="C85">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="D85">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>830.17300009727478</v>
+        <f t="shared" si="1"/>
+        <v>830</v>
       </c>
       <c r="B86">
         <v>382</v>
       </c>
       <c r="C86">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D86">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>840.17300009727478</v>
+        <f t="shared" si="1"/>
+        <v>840</v>
       </c>
       <c r="B87">
         <v>378</v>
       </c>
       <c r="C87">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D87">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>850.17300009727478</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="B88">
         <v>387</v>
       </c>
       <c r="C88">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D88">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>860.18799996376038</v>
+        <f t="shared" si="1"/>
+        <v>860</v>
       </c>
       <c r="B89">
         <v>388</v>
       </c>
       <c r="C89">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D89">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>870.18799996376038</v>
+        <f t="shared" si="1"/>
+        <v>870</v>
       </c>
       <c r="B90">
         <v>389</v>
       </c>
       <c r="C90">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D90">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>880.18700003623962</v>
+        <f t="shared" si="1"/>
+        <v>880</v>
       </c>
       <c r="B91">
         <v>392</v>
       </c>
       <c r="C91">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D91">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>890.18700003623962</v>
+        <f t="shared" si="1"/>
+        <v>890</v>
       </c>
       <c r="B92">
         <v>394</v>
       </c>
       <c r="C92">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D92">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>900.18600010871887</v>
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
       <c r="B93">
         <v>397</v>
       </c>
       <c r="C93">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D93">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>910.18600010871887</v>
+        <f t="shared" si="1"/>
+        <v>910</v>
       </c>
       <c r="B94">
         <v>399</v>
       </c>
       <c r="C94">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D94">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>920.20099997520447</v>
+        <f t="shared" si="1"/>
+        <v>920</v>
       </c>
       <c r="B95">
         <v>402</v>
       </c>
       <c r="C95">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D95">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>930.20099997520447</v>
+        <f t="shared" si="1"/>
+        <v>930</v>
       </c>
       <c r="B96">
         <v>396</v>
       </c>
       <c r="C96">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D96">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>940.20000004768372</v>
+        <f t="shared" si="1"/>
+        <v>940</v>
       </c>
       <c r="B97">
         <v>402</v>
       </c>
       <c r="C97">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="D97">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>950.20000004768372</v>
+        <f t="shared" si="1"/>
+        <v>950</v>
       </c>
       <c r="B98">
         <v>401</v>
       </c>
       <c r="C98">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="D98">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>960.20000004768372</v>
+        <f t="shared" si="1"/>
+        <v>960</v>
       </c>
       <c r="B99">
         <v>403</v>
       </c>
       <c r="C99">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D99">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>970.19900012016296</v>
+        <f t="shared" si="1"/>
+        <v>970</v>
       </c>
       <c r="B100">
         <v>407</v>
       </c>
       <c r="C100">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D100">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>980.19900012016296</v>
+        <f t="shared" si="1"/>
+        <v>980</v>
       </c>
       <c r="B101">
         <v>410</v>
       </c>
       <c r="C101">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D101">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>990.21399998664856</v>
+        <f t="shared" si="1"/>
+        <v>990</v>
       </c>
       <c r="B102">
         <v>415</v>
       </c>
       <c r="C102">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="D102">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1000.2139999866486</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="B103">
         <v>421</v>
       </c>
       <c r="C103">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="D103">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1010.2130000591278</v>
+        <f t="shared" si="1"/>
+        <v>1010</v>
       </c>
       <c r="B104">
         <v>423</v>
       </c>
       <c r="C104">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="D104">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1020.2290000915527</v>
+        <f t="shared" si="1"/>
+        <v>1020</v>
       </c>
       <c r="B105">
         <v>418</v>
       </c>
       <c r="C105">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="D105">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1030.2439999580383</v>
+        <f t="shared" si="1"/>
+        <v>1030</v>
       </c>
       <c r="B106">
         <v>418</v>
       </c>
       <c r="C106">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="D106">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1040.2430000305176</v>
+        <f t="shared" si="1"/>
+        <v>1040</v>
       </c>
       <c r="B107">
         <v>427</v>
       </c>
       <c r="C107">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="D107">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1050.2590000629425</v>
+        <f t="shared" si="1"/>
+        <v>1050</v>
       </c>
       <c r="B108">
         <v>427</v>
       </c>
       <c r="C108">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="D108">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1060.2580001354218</v>
+        <f t="shared" si="1"/>
+        <v>1060</v>
       </c>
       <c r="B109">
         <v>427</v>
       </c>
       <c r="C109">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D109">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1070.2580001354218</v>
+        <f t="shared" si="1"/>
+        <v>1070</v>
       </c>
       <c r="B110">
         <v>426</v>
       </c>
       <c r="C110">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D110">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1080.2580001354218</v>
+        <f t="shared" si="1"/>
+        <v>1080</v>
       </c>
       <c r="B111">
         <v>426</v>
       </c>
       <c r="C111">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D111">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1090.2569999694824</v>
+        <f t="shared" si="1"/>
+        <v>1090</v>
       </c>
       <c r="B112">
         <v>429</v>
       </c>
       <c r="C112">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D112">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1100.2720000743866</v>
+        <f t="shared" si="1"/>
+        <v>1100</v>
       </c>
       <c r="B113">
         <v>429</v>
       </c>
       <c r="C113">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="D113">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1110.2560000419617</v>
+        <f t="shared" si="1"/>
+        <v>1110</v>
       </c>
       <c r="B114">
         <v>432</v>
       </c>
       <c r="C114">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="D114">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1120.2720000743866</v>
+        <f t="shared" si="1"/>
+        <v>1120</v>
       </c>
       <c r="B115">
         <v>427</v>
       </c>
       <c r="C115">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="D115">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1130.2870001792908</v>
+        <f t="shared" si="1"/>
+        <v>1130</v>
       </c>
       <c r="B116">
         <v>429</v>
       </c>
       <c r="C116">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D116">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1140.2860000133514</v>
+        <f t="shared" si="1"/>
+        <v>1140</v>
       </c>
       <c r="B117">
         <v>429</v>
       </c>
       <c r="C117">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="D117">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1150.3170001506805</v>
+        <f t="shared" si="1"/>
+        <v>1150</v>
       </c>
       <c r="B118">
         <v>430</v>
       </c>
       <c r="C118">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="D118">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1160.3170001506805</v>
+        <f t="shared" si="1"/>
+        <v>1160</v>
       </c>
       <c r="B119">
         <v>432</v>
       </c>
       <c r="C119">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="D119">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1170.3159999847412</v>
+        <f t="shared" si="1"/>
+        <v>1170</v>
       </c>
       <c r="B120">
         <v>434</v>
       </c>
       <c r="C120">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="D120">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1180.3320000171661</v>
+        <f t="shared" si="1"/>
+        <v>1180</v>
       </c>
       <c r="B121">
         <v>434</v>
       </c>
       <c r="C121">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="D121">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1190.3470001220703</v>
+        <f t="shared" si="1"/>
+        <v>1190</v>
       </c>
       <c r="B122">
         <v>433</v>
       </c>
       <c r="C122">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="D122">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1200.3470001220703</v>
+        <f t="shared" si="1"/>
+        <v>1200</v>
       </c>
       <c r="B123">
         <v>436</v>
       </c>
       <c r="C123">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="D123">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1210.345999956131</v>
+        <f t="shared" si="1"/>
+        <v>1210</v>
       </c>
       <c r="B124">
         <v>437</v>
       </c>
       <c r="C124">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="D124">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1220.345999956131</v>
+        <f t="shared" si="1"/>
+        <v>1220</v>
       </c>
       <c r="B125">
         <v>447</v>
       </c>
       <c r="C125">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="D125">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1230.3610000610352</v>
+        <f t="shared" si="1"/>
+        <v>1230</v>
       </c>
       <c r="B126">
         <v>448</v>
       </c>
       <c r="C126">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="D126">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1240.3610000610352</v>
+        <f t="shared" si="1"/>
+        <v>1240</v>
       </c>
       <c r="B127">
         <v>436</v>
       </c>
       <c r="C127">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="D127">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1250.3760001659393</v>
+        <f t="shared" si="1"/>
+        <v>1250</v>
       </c>
       <c r="B128">
         <v>442</v>
       </c>
       <c r="C128">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="D128">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1260.3910000324249</v>
+        <f t="shared" si="1"/>
+        <v>1260</v>
       </c>
       <c r="B129">
         <v>454</v>
       </c>
       <c r="C129">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="D129">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1270.4060001373291</v>
+        <f t="shared" si="1"/>
+        <v>1270</v>
       </c>
       <c r="B130">
         <v>446</v>
       </c>
-      <c r="C130">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="D130">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1280.4060001373291</v>
+        <f t="shared" si="1"/>
+        <v>1280</v>
       </c>
       <c r="B131">
         <v>445</v>
       </c>
-      <c r="C131">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="D131">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1290.4049999713898</v>
+        <f t="shared" si="1"/>
+        <v>1290</v>
       </c>
       <c r="B132">
         <v>452</v>
       </c>
-      <c r="C132">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="D132">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1300.4049999713898</v>
+        <f t="shared" si="1"/>
+        <v>1300</v>
       </c>
       <c r="B133">
         <v>448</v>
       </c>
-      <c r="C133">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="D133">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1310.4200000762939</v>
+        <f t="shared" ref="A134:A159" si="2">A133+10</f>
+        <v>1310</v>
       </c>
       <c r="B134">
         <v>448</v>
       </c>
-      <c r="C134">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="D134">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1320.4360001087189</v>
+        <f t="shared" si="2"/>
+        <v>1320</v>
       </c>
       <c r="B135">
         <v>447</v>
       </c>
-      <c r="C135">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="D135">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1330.4509999752045</v>
+        <f t="shared" si="2"/>
+        <v>1330</v>
       </c>
       <c r="B136">
         <v>456</v>
       </c>
-      <c r="C136">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="D136">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1340.4500000476837</v>
+        <f t="shared" si="2"/>
+        <v>1340</v>
       </c>
       <c r="B137">
         <v>454</v>
       </c>
-      <c r="C137">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="D137">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1350.4809999465942</v>
+        <f t="shared" si="2"/>
+        <v>1350</v>
       </c>
       <c r="B138">
         <v>456</v>
       </c>
-      <c r="C138">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="D138">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1360.4809999465942</v>
+        <f t="shared" si="2"/>
+        <v>1360</v>
       </c>
       <c r="B139">
         <v>457</v>
       </c>
-      <c r="C139">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="D139">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1370.4960000514984</v>
+        <f t="shared" si="2"/>
+        <v>1370</v>
       </c>
       <c r="B140">
         <v>458</v>
       </c>
-      <c r="C140">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="D140">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1380.5110001564026</v>
+        <f t="shared" si="2"/>
+        <v>1380</v>
       </c>
       <c r="B141">
         <v>457</v>
       </c>
-      <c r="C141">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="D141">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1390.5110001564026</v>
+        <f t="shared" si="2"/>
+        <v>1390</v>
       </c>
       <c r="B142">
         <v>459</v>
       </c>
-      <c r="C142">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="D142">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1400.5260000228882</v>
+        <f t="shared" si="2"/>
+        <v>1400</v>
       </c>
       <c r="B143">
         <v>459</v>
       </c>
-      <c r="C143">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="D143">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1410.5260000228882</v>
+        <f t="shared" si="2"/>
+        <v>1410</v>
       </c>
       <c r="B144">
         <v>460</v>
       </c>
-      <c r="C144">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1420.5410001277924</v>
+        <f t="shared" si="2"/>
+        <v>1420</v>
       </c>
       <c r="B145">
         <v>460</v>
       </c>
-      <c r="C145">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1430.5410001277924</v>
+        <f t="shared" si="2"/>
+        <v>1430</v>
       </c>
       <c r="B146">
         <v>463</v>
       </c>
-      <c r="C146">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1440.539999961853</v>
+        <f t="shared" si="2"/>
+        <v>1440</v>
       </c>
       <c r="B147">
         <v>460</v>
       </c>
-      <c r="C147">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1450.539999961853</v>
+        <f t="shared" si="2"/>
+        <v>1450</v>
       </c>
       <c r="B148">
         <v>460</v>
       </c>
-      <c r="C148">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1460.5550000667572</v>
+        <f t="shared" si="2"/>
+        <v>1460</v>
       </c>
       <c r="B149">
         <v>463</v>
       </c>
-      <c r="C149">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1470.5700001716614</v>
+        <f t="shared" si="2"/>
+        <v>1470</v>
       </c>
       <c r="B150">
         <v>466</v>
       </c>
-      <c r="C150">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1480.5700001716614</v>
+        <f t="shared" si="2"/>
+        <v>1480</v>
       </c>
       <c r="B151">
         <v>465</v>
       </c>
-      <c r="C151">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1490.569000005722</v>
+        <f t="shared" si="2"/>
+        <v>1490</v>
       </c>
       <c r="B152">
         <v>458</v>
       </c>
-      <c r="C152">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1500.569000005722</v>
+        <f t="shared" si="2"/>
+        <v>1500</v>
       </c>
       <c r="B153">
         <v>467</v>
       </c>
-      <c r="C153">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1510.569000005722</v>
+        <f t="shared" si="2"/>
+        <v>1510</v>
       </c>
       <c r="B154">
         <v>463</v>
       </c>
-      <c r="C154">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1520.5680000782013</v>
+        <f t="shared" si="2"/>
+        <v>1520</v>
       </c>
       <c r="B155">
         <v>464</v>
       </c>
-      <c r="C155">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1530.5680000782013</v>
+        <f t="shared" si="2"/>
+        <v>1530</v>
       </c>
       <c r="B156">
         <v>464</v>
       </c>
-      <c r="C156">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1540.5829999446869</v>
+        <f t="shared" si="2"/>
+        <v>1540</v>
       </c>
       <c r="B157">
         <v>471</v>
       </c>
-      <c r="C157">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1550.5829999446869</v>
+        <f t="shared" si="2"/>
+        <v>1550</v>
       </c>
       <c r="B158">
         <v>466</v>
       </c>
-      <c r="C158">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1560.5840001106262</v>
+        <f t="shared" si="2"/>
+        <v>1560</v>
       </c>
       <c r="B159">
         <v>469</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>400</v>
       </c>
     </row>
